--- a/docs/QA/Issue tracker_1712.xlsx
+++ b/docs/QA/Issue tracker_1712.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Technogy" sheetId="6" r:id="rId1"/>
@@ -15,16 +15,15 @@
     <sheet name="Benifits" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Product landing new'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Product landing new'!$A$1:$I$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Technogy!$A$1:$I$8</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="202">
   <si>
     <t>Issue</t>
   </si>
@@ -770,6 +769,95 @@
   </si>
   <si>
     <t>SLN5</t>
+  </si>
+  <si>
+    <t>ARK9</t>
+  </si>
+  <si>
+    <t>most of the content is missing in the chard page</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LA/soluciones/datacenter/architecture.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/es_mx/solutions/data-center-virtualization/architecture.html</t>
+  </si>
+  <si>
+    <t>ARK10</t>
+  </si>
+  <si>
+    <t>In report it is mentioned that the image doesnot exists but we can able to see the image</t>
+  </si>
+  <si>
+    <t>ARK11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">link is missing in the right trail component </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Admita una infraestructura convergente</t>
+    </r>
+  </si>
+  <si>
+    <t>ARK12</t>
+  </si>
+  <si>
+    <t>PDF size is missing in the chard page</t>
+  </si>
+  <si>
+    <t>ARK8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Mismatch in the content of the  pdf size in chard page it is showing as (PDF - 467 KB) where as in the chard page it is showing as (PDF , 467 KB) 
+2.PDF images are missing  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same issue with other locals</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LA/soluciones/sp/architecture.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/es_mx/solutions/service-provider/architecture.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open </t>
+  </si>
+  <si>
+    <t>srividya</t>
+  </si>
+  <si>
+    <t>bhavya</t>
   </si>
 </sst>
 </file>
@@ -916,9 +1004,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -927,24 +1012,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -958,6 +1025,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1265,7 +1353,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>90</v>
       </c>
@@ -1417,7 +1505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>93</v>
       </c>
@@ -1434,7 +1522,7 @@
         <v>42355</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>24</v>
@@ -1523,10 +1611,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -1598,7 +1687,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -1650,7 +1739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -1676,7 +1765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>72</v>
       </c>
@@ -1702,7 +1791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -1754,7 +1843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>75</v>
       </c>
@@ -1780,7 +1869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>76</v>
       </c>
@@ -1806,7 +1895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>77</v>
       </c>
@@ -1833,107 +1922,113 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="13" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I16">
+    <filterColumn colId="7">
+      <filters blank="1">
+        <filter val="surya"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
   </hyperlinks>
@@ -1943,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,22 +2191,22 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="14" t="s">
         <v>158</v>
       </c>
       <c r="E6" s="4">
         <v>42355</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -2122,22 +2217,22 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="14" t="s">
         <v>161</v>
       </c>
       <c r="E7" s="4">
         <v>42355</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -2148,22 +2243,22 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="14" t="s">
         <v>163</v>
       </c>
       <c r="E8" s="4">
         <v>42355</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -2171,6 +2266,136 @@
       </c>
       <c r="H8" s="3" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="11">
+        <v>42356</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="11">
+        <v>42356</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="11">
+        <v>42356</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="11">
+        <v>42356</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="11">
+        <v>42356</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2185,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,19 +2453,19 @@
       <c r="A2" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="18">
-        <v>42355</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="11">
+        <v>42355</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>46</v>
       </c>
       <c r="G2" t="s">
@@ -2248,90 +2473,90 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="18">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="11">
         <v>42356</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="11">
         <v>42357</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="11">
         <v>42358</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="11">
         <v>42359</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2384,162 +2609,162 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>99</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -2550,22 +2775,22 @@
       <c r="A10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2573,102 +2798,102 @@
       <c r="A11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2676,64 +2901,64 @@
       <c r="A16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="11" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2741,22 +2966,22 @@
       <c r="A19" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2764,22 +2989,22 @@
       <c r="A20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2787,22 +3012,22 @@
       <c r="A21" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2810,22 +3035,22 @@
       <c r="A22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2833,79 +3058,79 @@
       <c r="A23" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="E23" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="E24" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="11" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="10">
-        <v>42355</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="E25" s="9">
+        <v>42355</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
